--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC61B48B-CB68-4EE8-9818-957C4F4E86A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561EA6C1-A7E2-4952-98E5-F05B2D3A5902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部システムIF(1図番指定)画面" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="163">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -661,29 +672,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>外部システム(sys_id=0200)から接続しようとして、エラーになったことを示す以下のレコードが出力されていること
-[yyMMddHHmmss],[アクセス端末IPアドレス],,,14,11,0200</t>
-    <rPh sb="0" eb="2">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セツゾク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>シメ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>タンマツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>USER_MASTER.USER_ID=B0021
 登録済み</t>
     <rPh sb="26" eb="28">
@@ -872,10 +860,6 @@
       <t>ズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">検索画面を開いたときのエラーログ
-</t>
   </si>
   <si>
     <r>
@@ -1377,6 +1361,29 @@
     </rPh>
     <rPh sb="40" eb="43">
       <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NG⇒OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1657,7 +1664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1869,9 +1876,18 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{36614F96-FD4B-47EC-99D1-B00EC17B6B7C}"/>
   </cellStyles>
@@ -2156,30 +2172,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T48"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="15" width="46.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="84.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.2109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="45.78515625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="15" width="46.875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="84.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.75" style="2" customWidth="1"/>
+    <col min="20" max="20" width="45.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="56" t="s">
         <v>13</v>
       </c>
@@ -2189,7 +2205,7 @@
       <c r="E1" s="58"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="59" t="s">
         <v>11</v>
       </c>
@@ -2205,7 +2221,7 @@
       </c>
       <c r="F2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="61" t="s">
         <v>12</v>
       </c>
@@ -2221,7 +2237,7 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
@@ -2231,7 +2247,7 @@
       <c r="E4" s="58"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="217.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:10" ht="217.7" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="63" t="s">
         <v>20</v>
       </c>
@@ -2241,7 +2257,7 @@
       <c r="E5" s="66"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="30"/>
       <c r="B6" s="68" t="s">
         <v>21</v>
@@ -2259,7 +2275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
@@ -2289,7 +2305,7 @@
       </c>
       <c r="J7" s="52"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="37" t="s">
         <v>65</v>
       </c>
@@ -2319,7 +2335,7 @@
       </c>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
         <v>68</v>
       </c>
@@ -2383,7 +2399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>69</v>
       </c>
@@ -2415,7 +2431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
         <v>70</v>
       </c>
@@ -2447,7 +2463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
         <v>73</v>
       </c>
@@ -2479,7 +2495,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
         <v>75</v>
       </c>
@@ -2511,7 +2527,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
         <v>77</v>
       </c>
@@ -2543,7 +2559,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
         <v>80</v>
       </c>
@@ -2575,7 +2591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -2583,7 +2599,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="18"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="30"/>
       <c r="B18" s="67" t="s">
         <v>21</v>
@@ -2603,7 +2619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="31"/>
       <c r="B19" s="32" t="s">
         <v>25</v>
@@ -2631,7 +2647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A20" s="29"/>
       <c r="B20" s="26">
         <v>123456</v>
@@ -2661,7 +2677,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="29"/>
       <c r="B21" s="26" t="s">
         <v>37</v>
@@ -2690,8 +2706,15 @@
       <c r="J21" s="36" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.65">
+      <c r="Q21" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="R21" s="72">
+        <f>COUNTIF(Q$30:Q$998,Q21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="29"/>
       <c r="B22" s="26" t="s">
         <v>71</v>
@@ -2720,8 +2743,15 @@
       <c r="J22" s="26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q22" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="R22" s="72">
+        <f>COUNTIF(Q$30:Q$998,Q22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A23" s="29"/>
       <c r="B23" s="26" t="s">
         <v>74</v>
@@ -2750,8 +2780,15 @@
       <c r="J23" s="36" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q23" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="R23" s="72">
+        <f>COUNTIF(Q$30:Q$998,Q23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
         <v>76</v>
@@ -2780,8 +2817,15 @@
       <c r="J24" s="36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q24" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="R24" s="72">
+        <f>COUNTIF(Q$30:Q$998,Q24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="29"/>
       <c r="B25" s="26" t="s">
         <v>78</v>
@@ -2810,8 +2854,15 @@
       <c r="J25" s="36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+      <c r="Q25" s="71" t="s">
+        <v>162</v>
+      </c>
+      <c r="R25" s="73" t="str">
+        <f>"未実施："&amp;COUNTA(P$30:P$998)-SUM(R21:R24)&amp;"／実施済："&amp;SUM(R21:R24)</f>
+        <v>未実施：18／実施済：0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="29"/>
       <c r="B26" s="26" t="s">
         <v>81</v>
@@ -2841,7 +2892,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" s="29"/>
       <c r="B27" s="26" t="s">
         <v>66</v>
@@ -2857,7 +2908,7 @@
       <c r="I27" s="33"/>
       <c r="J27" s="34"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -2865,7 +2916,7 @@
       <c r="E28" s="21"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:20" ht="15.45" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="13" t="s">
         <v>19</v>
       </c>
@@ -2905,7 +2956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="154.30000000000001" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:20" ht="157.5" x14ac:dyDescent="0.4">
       <c r="A30" s="41">
         <v>1</v>
       </c>
@@ -2931,7 +2982,7 @@
         <v>99</v>
       </c>
       <c r="I30" s="42" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J30" s="42" t="s">
         <v>100</v>
@@ -2940,24 +2991,24 @@
         <v>101</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N30" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O30" s="42"/>
       <c r="P30" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="45"/>
       <c r="R30" s="46"/>
       <c r="S30" s="45"/>
       <c r="T30" s="47"/>
     </row>
-    <row r="31" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A31" s="41">
         <v>2</v>
       </c>
@@ -2978,14 +3029,14 @@
         <v>110</v>
       </c>
       <c r="P31" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q31" s="45"/>
       <c r="R31" s="46"/>
       <c r="S31" s="45"/>
       <c r="T31" s="47"/>
     </row>
-    <row r="32" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A32" s="41">
         <v>3</v>
       </c>
@@ -3002,28 +3053,28 @@
       </c>
       <c r="I32" s="43"/>
       <c r="J32" s="42" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K32" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L32" s="42"/>
       <c r="M32" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N32" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O32" s="42"/>
       <c r="P32" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q32" s="45"/>
       <c r="R32" s="46"/>
       <c r="S32" s="45"/>
       <c r="T32" s="47"/>
     </row>
-    <row r="33" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A33" s="41">
         <v>4</v>
       </c>
@@ -3041,17 +3092,17 @@
       <c r="M33" s="42"/>
       <c r="N33" s="42"/>
       <c r="O33" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P33" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q33" s="45"/>
       <c r="R33" s="46"/>
       <c r="S33" s="45"/>
       <c r="T33" s="47"/>
     </row>
-    <row r="34" spans="1:20" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A34" s="41">
         <v>5</v>
       </c>
@@ -3070,17 +3121,17 @@
       </c>
       <c r="I34" s="42"/>
       <c r="J34" s="42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K34" s="43" t="s">
         <v>108</v>
       </c>
       <c r="L34" s="42"/>
       <c r="M34" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N34" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O34" s="42"/>
       <c r="P34" s="49" t="s">
@@ -3091,7 +3142,7 @@
       <c r="S34" s="45"/>
       <c r="T34" s="47"/>
     </row>
-    <row r="35" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A35" s="41">
         <v>6</v>
       </c>
@@ -3109,17 +3160,17 @@
       <c r="M35" s="42"/>
       <c r="N35" s="42"/>
       <c r="O35" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P35" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q35" s="45"/>
       <c r="R35" s="46"/>
       <c r="S35" s="45"/>
       <c r="T35" s="47"/>
     </row>
-    <row r="36" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A36" s="41">
         <v>7</v>
       </c>
@@ -3137,21 +3188,21 @@
       </c>
       <c r="L36" s="42"/>
       <c r="M36" s="42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N36" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O36" s="42"/>
       <c r="P36" s="48" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q36" s="45"/>
       <c r="R36" s="46"/>
       <c r="S36" s="45"/>
       <c r="T36" s="47"/>
     </row>
-    <row r="37" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A37" s="41">
         <v>8</v>
       </c>
@@ -3166,24 +3217,24 @@
       <c r="J37" s="42"/>
       <c r="K37" s="43"/>
       <c r="L37" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M37" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N37" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O37" s="42"/>
       <c r="P37" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q37" s="45"/>
       <c r="R37" s="46"/>
       <c r="S37" s="45"/>
       <c r="T37" s="47"/>
     </row>
-    <row r="38" spans="1:20" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A38" s="41">
         <v>9</v>
       </c>
@@ -3201,17 +3252,17 @@
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="42" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P38" s="44" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Q38" s="45"/>
       <c r="R38" s="46"/>
       <c r="S38" s="45"/>
       <c r="T38" s="47"/>
     </row>
-    <row r="39" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A39" s="41">
         <v>10</v>
       </c>
@@ -3226,24 +3277,24 @@
       <c r="J39" s="42"/>
       <c r="K39" s="43"/>
       <c r="L39" s="42" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M39" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N39" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O39" s="43"/>
       <c r="P39" s="44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q39" s="45"/>
       <c r="R39" s="46"/>
       <c r="S39" s="45"/>
       <c r="T39" s="47"/>
     </row>
-    <row r="40" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A40" s="41">
         <v>11</v>
       </c>
@@ -3261,17 +3312,17 @@
       <c r="M40" s="42"/>
       <c r="N40" s="42"/>
       <c r="O40" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P40" s="44" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q40" s="45"/>
       <c r="R40" s="46"/>
       <c r="S40" s="45"/>
       <c r="T40" s="47"/>
     </row>
-    <row r="41" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A41" s="41">
         <v>12</v>
       </c>
@@ -3280,40 +3331,40 @@
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="42" t="s">
+      <c r="H41" s="42" t="s">
         <v>113</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>114</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="L41" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="K41" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41" s="42" t="s">
-        <v>151</v>
-      </c>
       <c r="M41" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N41" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O41" s="42"/>
       <c r="P41" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q41" s="45"/>
       <c r="R41" s="46"/>
       <c r="S41" s="45"/>
       <c r="T41" s="47"/>
     </row>
-    <row r="42" spans="1:20" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A42" s="41">
         <v>13</v>
       </c>
@@ -3331,17 +3382,17 @@
       <c r="M42" s="42"/>
       <c r="N42" s="42"/>
       <c r="O42" s="42" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P42" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q42" s="45"/>
       <c r="R42" s="46"/>
       <c r="S42" s="45"/>
       <c r="T42" s="47"/>
     </row>
-    <row r="43" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A43" s="41">
         <v>14</v>
       </c>
@@ -3350,40 +3401,40 @@
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
       <c r="F43" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="42" t="s">
+      <c r="H43" s="42" t="s">
         <v>118</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>119</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="42" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K43" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L43" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N43" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O43" s="43"/>
       <c r="P43" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q43" s="45"/>
       <c r="R43" s="46"/>
       <c r="S43" s="45"/>
       <c r="T43" s="47"/>
     </row>
-    <row r="44" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A44" s="41">
         <v>15</v>
       </c>
@@ -3401,17 +3452,17 @@
       <c r="M44" s="42"/>
       <c r="N44" s="42"/>
       <c r="O44" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P44" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q44" s="45"/>
       <c r="R44" s="46"/>
       <c r="S44" s="45"/>
       <c r="T44" s="47"/>
     </row>
-    <row r="45" spans="1:20" ht="77.150000000000006" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
       <c r="A45" s="41">
         <v>16</v>
       </c>
@@ -3420,40 +3471,40 @@
       <c r="D45" s="43"/>
       <c r="E45" s="43"/>
       <c r="F45" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="42" t="s">
+      <c r="H45" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>123</v>
       </c>
       <c r="I45" s="42"/>
       <c r="J45" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K45" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L45" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M45" s="42" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N45" s="42" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O45" s="43"/>
       <c r="P45" s="48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q45" s="45"/>
       <c r="R45" s="46"/>
       <c r="S45" s="45"/>
       <c r="T45" s="47"/>
     </row>
-    <row r="46" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A46" s="41">
         <v>17</v>
       </c>
@@ -3471,17 +3522,17 @@
       <c r="M46" s="42"/>
       <c r="N46" s="42"/>
       <c r="O46" s="42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P46" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q46" s="45"/>
       <c r="R46" s="46"/>
       <c r="S46" s="45"/>
       <c r="T46" s="47"/>
     </row>
-    <row r="47" spans="1:20" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A47" s="41">
         <v>18</v>
       </c>
@@ -3490,26 +3541,26 @@
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
       <c r="F47" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="G47" s="42" t="s">
+      <c r="H47" s="42" t="s">
         <v>126</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>127</v>
       </c>
       <c r="I47" s="42"/>
       <c r="J47" s="42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K47" s="50" t="s">
         <v>104</v>
       </c>
       <c r="L47" s="42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M47" s="42" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N47" s="42"/>
       <c r="O47" s="42"/>
@@ -3520,32 +3571,6 @@
       <c r="R47" s="46"/>
       <c r="S47" s="45"/>
       <c r="T47" s="47"/>
-    </row>
-    <row r="48" spans="1:20" ht="30.9" x14ac:dyDescent="0.65">
-      <c r="A48" s="41"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="P48" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="45"/>
-      <c r="T48" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3569,6 +3594,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -3791,34 +3836,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAC3F4FA-C13C-4122-ADAB-BE8D169DC87F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C777D6-A248-4EA5-8B66-997B2450337F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB51331-CF8F-401F-9CBD-1E931334C107}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB51331-CF8F-401F-9CBD-1E931334C107}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C777D6-A248-4EA5-8B66-997B2450337F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAC3F4FA-C13C-4122-ADAB-BE8D169DC87F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB27F537-3741-4FA7-854C-1008528B4FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FB947-5B9C-4BDB-8D9A-B6C024374942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2870,11 +2870,8 @@
       <t>00400296
 登録済み</t>
     </r>
-    <rPh sb="52" eb="54">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>ズ</t>
+    <rPh sb="0" eb="50">
+      <t>トウロクズ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -3103,9 +3100,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3256,6 +3253,14 @@
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -3465,7 +3470,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -3473,8 +3478,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -3594,9 +3600,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3631,6 +3634,58 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3692,60 +3747,15 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="12" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="2" xr:uid="{36614F96-FD4B-47EC-99D1-B00EC17B6B7C}"/>
@@ -14247,20 +14257,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="77"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
@@ -14273,10 +14283,10 @@
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="81"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -14289,40 +14299,40 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="217.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="85"/>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="29"/>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="53" t="s">
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="70" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14354,7 +14364,7 @@
       <c r="I7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="54"/>
+      <c r="J7" s="71"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
@@ -14582,7 +14592,7 @@
       <c r="A15" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="69" t="s">
         <v>287</v>
       </c>
       <c r="C15" s="23" t="s">
@@ -14652,20 +14662,20 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="29"/>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="53" t="s">
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
       <c r="J18" s="34" t="s">
         <v>50</v>
       </c>
@@ -14681,7 +14691,7 @@
       <c r="D19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="22" t="s">
         <v>52</v>
       </c>
@@ -14757,10 +14767,10 @@
       <c r="J21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" s="50" t="s">
+      <c r="Q21" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="R21" s="51">
+      <c r="R21" s="50">
         <f>COUNTIF(Q$30:Q$998,Q21)</f>
         <v>16</v>
       </c>
@@ -14794,10 +14804,10 @@
       <c r="J22" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="Q22" s="50" t="s">
+      <c r="Q22" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="R22" s="51">
+      <c r="R22" s="50">
         <f>COUNTIF(Q$30:Q$998,Q22)</f>
         <v>0</v>
       </c>
@@ -14831,10 +14841,10 @@
       <c r="J23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="50" t="s">
+      <c r="Q23" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="R23" s="51">
+      <c r="R23" s="50">
         <f>COUNTIF(Q$30:Q$998,Q23)</f>
         <v>0</v>
       </c>
@@ -14868,10 +14878,10 @@
       <c r="J24" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="50" t="s">
+      <c r="Q24" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="50">
         <f>COUNTIF(Q$30:Q$998,Q24)</f>
         <v>0</v>
       </c>
@@ -14905,10 +14915,10 @@
       <c r="J25" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="Q25" s="50" t="s">
+      <c r="Q25" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="R25" s="52" t="str">
+      <c r="R25" s="51" t="str">
         <f>"未実施："&amp;COUNTA(P$30:P$998)-SUM(R21:R24)&amp;"／実施済："&amp;SUM(R21:R24)</f>
         <v>未実施：2／実施済：16</v>
       </c>
@@ -14977,14 +14987,14 @@
       <c r="C29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="74"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -15008,581 +15018,581 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="157.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="78">
+      <c r="A30" s="90">
         <v>1</v>
       </c>
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="81" t="s">
+      <c r="E30" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="81" t="s">
+      <c r="F30" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="81" t="s">
+      <c r="G30" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="81" t="s">
+      <c r="H30" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="81" t="s">
+      <c r="I30" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="J30" s="81" t="s">
+      <c r="J30" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="K30" s="80" t="s">
+      <c r="K30" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="L30" s="81" t="s">
+      <c r="L30" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="M30" s="81" t="s">
+      <c r="M30" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="N30" s="81" t="s">
+      <c r="N30" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="O30" s="81"/>
-      <c r="P30" s="82" t="s">
+      <c r="O30" s="60"/>
+      <c r="P30" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="Q30" s="78" t="s">
+      <c r="Q30" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="R30" s="83">
+      <c r="R30" s="62">
         <v>45562</v>
       </c>
-      <c r="S30" s="78" t="s">
+      <c r="S30" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="T30" s="80"/>
+      <c r="T30" s="59"/>
     </row>
     <row r="31" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="40">
+      <c r="A31" s="91">
         <v>2</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="P31" s="43" t="s">
+      <c r="P31" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="Q31" s="44" t="s">
+      <c r="Q31" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R31" s="45">
+      <c r="R31" s="44">
         <v>45562</v>
       </c>
-      <c r="S31" s="44" t="s">
+      <c r="S31" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T31" s="46"/>
+      <c r="T31" s="45"/>
     </row>
     <row r="32" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="78">
+      <c r="A32" s="90">
         <v>3</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81" t="s">
+      <c r="B32" s="60"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="80"/>
-      <c r="J32" s="81" t="s">
+      <c r="I32" s="59"/>
+      <c r="J32" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="K32" s="80" t="s">
+      <c r="K32" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81" t="s">
+      <c r="L32" s="60"/>
+      <c r="M32" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="N32" s="81" t="s">
+      <c r="N32" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="O32" s="81"/>
-      <c r="P32" s="82" t="s">
+      <c r="O32" s="60"/>
+      <c r="P32" s="61" t="s">
         <v>141</v>
       </c>
-      <c r="Q32" s="78" t="s">
+      <c r="Q32" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="R32" s="83">
+      <c r="R32" s="62">
         <v>45562</v>
       </c>
-      <c r="S32" s="78" t="s">
+      <c r="S32" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="T32" s="80"/>
+      <c r="T32" s="59"/>
     </row>
     <row r="33" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A33" s="40">
+      <c r="A33" s="91">
         <v>4</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="P33" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="Q33" s="44" t="s">
+      <c r="Q33" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R33" s="45">
+      <c r="R33" s="44">
         <v>45562</v>
       </c>
-      <c r="S33" s="44" t="s">
+      <c r="S33" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T33" s="46"/>
+      <c r="T33" s="45"/>
     </row>
     <row r="34" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="40">
+      <c r="A34" s="91">
         <v>5</v>
       </c>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="41" t="s">
+      <c r="G34" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41" t="s">
+      <c r="I34" s="40"/>
+      <c r="J34" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41" t="s">
+      <c r="L34" s="40"/>
+      <c r="M34" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="N34" s="41" t="s">
+      <c r="N34" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="O34" s="41"/>
-      <c r="P34" s="48" t="s">
+      <c r="O34" s="40"/>
+      <c r="P34" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="Q34" s="44" t="s">
+      <c r="Q34" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R34" s="45">
+      <c r="R34" s="44">
         <v>45562</v>
       </c>
-      <c r="S34" s="44" t="s">
+      <c r="S34" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T34" s="46"/>
+      <c r="T34" s="45"/>
     </row>
     <row r="35" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="40">
+      <c r="A35" s="91">
         <v>6</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="P35" s="43" t="s">
+      <c r="P35" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="Q35" s="44" t="s">
+      <c r="Q35" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R35" s="45">
+      <c r="R35" s="44">
         <v>45562</v>
       </c>
-      <c r="S35" s="44" t="s">
+      <c r="S35" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T35" s="46"/>
+      <c r="T35" s="45"/>
     </row>
     <row r="36" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="40">
+      <c r="A36" s="91">
         <v>7</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41" t="s">
+      <c r="L36" s="40"/>
+      <c r="M36" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="N36" s="41" t="s">
+      <c r="N36" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="O36" s="41"/>
-      <c r="P36" s="47" t="s">
+      <c r="O36" s="40"/>
+      <c r="P36" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="Q36" s="44" t="s">
+      <c r="Q36" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R36" s="45">
+      <c r="R36" s="44">
         <v>45562</v>
       </c>
-      <c r="S36" s="44" t="s">
+      <c r="S36" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T36" s="46"/>
+      <c r="T36" s="45"/>
     </row>
     <row r="37" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="40">
+      <c r="A37" s="91">
         <v>8</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="41" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="M37" s="41" t="s">
+      <c r="M37" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="N37" s="41" t="s">
+      <c r="N37" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="O37" s="41"/>
-      <c r="P37" s="43" t="s">
+      <c r="O37" s="40"/>
+      <c r="P37" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="Q37" s="44" t="s">
+      <c r="Q37" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R37" s="45">
+      <c r="R37" s="44">
         <v>45562</v>
       </c>
-      <c r="S37" s="44" t="s">
+      <c r="S37" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T37" s="46"/>
+      <c r="T37" s="45"/>
     </row>
     <row r="38" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="40">
+      <c r="A38" s="91">
         <v>9</v>
       </c>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="40"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="P38" s="43" t="s">
+      <c r="P38" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="Q38" s="44" t="s">
+      <c r="Q38" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R38" s="45">
+      <c r="R38" s="44">
         <v>45562</v>
       </c>
-      <c r="S38" s="44" t="s">
+      <c r="S38" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T38" s="46"/>
+      <c r="T38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="40">
+      <c r="A39" s="91">
         <v>10</v>
       </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="41" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="41" t="s">
+      <c r="M39" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="N39" s="41" t="s">
+      <c r="N39" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="O39" s="42"/>
-      <c r="P39" s="43" t="s">
+      <c r="O39" s="41"/>
+      <c r="P39" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="Q39" s="44" t="s">
+      <c r="Q39" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R39" s="45">
+      <c r="R39" s="44">
         <v>45562</v>
       </c>
-      <c r="S39" s="44" t="s">
+      <c r="S39" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T39" s="46"/>
+      <c r="T39" s="45"/>
     </row>
     <row r="40" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="40">
+      <c r="A40" s="91">
         <v>11</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41" t="s">
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="P40" s="43" t="s">
+      <c r="P40" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="Q40" s="44" t="s">
+      <c r="Q40" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R40" s="45">
+      <c r="R40" s="44">
         <v>45562</v>
       </c>
-      <c r="S40" s="44" t="s">
+      <c r="S40" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T40" s="46"/>
+      <c r="T40" s="45"/>
     </row>
     <row r="41" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="40">
+      <c r="A41" s="91">
         <v>12</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="41" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="41" t="s">
+      <c r="G41" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41" t="s">
+      <c r="I41" s="40"/>
+      <c r="J41" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="K41" s="42" t="s">
+      <c r="K41" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="L41" s="41" t="s">
+      <c r="L41" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="M41" s="41" t="s">
+      <c r="M41" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="N41" s="41" t="s">
+      <c r="N41" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="O41" s="41"/>
-      <c r="P41" s="43" t="s">
+      <c r="O41" s="40"/>
+      <c r="P41" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="Q41" s="44" t="s">
+      <c r="Q41" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R41" s="45">
+      <c r="R41" s="44">
         <v>45562</v>
       </c>
-      <c r="S41" s="44" t="s">
+      <c r="S41" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T41" s="46"/>
+      <c r="T41" s="45"/>
     </row>
     <row r="42" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A42" s="40">
+      <c r="A42" s="91">
         <v>13</v>
       </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="P42" s="43" t="s">
+      <c r="P42" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="Q42" s="44" t="s">
+      <c r="Q42" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R42" s="45">
+      <c r="R42" s="44">
         <v>45562</v>
       </c>
-      <c r="S42" s="44" t="s">
+      <c r="S42" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T42" s="46"/>
+      <c r="T42" s="45"/>
     </row>
     <row r="43" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="40">
+      <c r="A43" s="91">
         <v>14</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="41" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="41" t="s">
+      <c r="G43" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="41" t="s">
+      <c r="H43" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41" t="s">
+      <c r="I43" s="40"/>
+      <c r="J43" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="L43" s="41" t="s">
+      <c r="L43" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="M43" s="41" t="s">
+      <c r="M43" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="N43" s="41" t="s">
+      <c r="N43" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="O43" s="42"/>
-      <c r="P43" s="47" t="s">
+      <c r="O43" s="41"/>
+      <c r="P43" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="Q43" s="44" t="s">
+      <c r="Q43" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R43" s="45">
+      <c r="R43" s="44">
         <v>45562</v>
       </c>
-      <c r="S43" s="44" t="s">
+      <c r="S43" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T43" s="46"/>
+      <c r="T43" s="45"/>
     </row>
     <row r="44" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A44" s="86">
+      <c r="A44" s="65">
         <v>15</v>
       </c>
       <c r="B44" s="29"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="29"/>
       <c r="F44" s="29"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
-      <c r="K44" s="87"/>
+      <c r="K44" s="66"/>
       <c r="L44" s="29"/>
       <c r="M44" s="29"/>
       <c r="N44" s="29"/>
@@ -15592,75 +15602,75 @@
       <c r="P44" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="88"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="89" t="s">
+      <c r="Q44" s="65"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="68" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="40">
+      <c r="A45" s="91">
         <v>16</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="41" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G45" s="41" t="s">
+      <c r="G45" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41" t="s">
+      <c r="I45" s="40"/>
+      <c r="J45" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="K45" s="42" t="s">
+      <c r="K45" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="L45" s="41" t="s">
+      <c r="L45" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="M45" s="41" t="s">
+      <c r="M45" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="N45" s="41" t="s">
+      <c r="N45" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="O45" s="42"/>
-      <c r="P45" s="47" t="s">
+      <c r="O45" s="41"/>
+      <c r="P45" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="Q45" s="44" t="s">
+      <c r="Q45" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R45" s="45">
+      <c r="R45" s="44">
         <v>45562</v>
       </c>
-      <c r="S45" s="44" t="s">
+      <c r="S45" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T45" s="46"/>
+      <c r="T45" s="45"/>
     </row>
     <row r="46" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A46" s="86">
+      <c r="A46" s="65">
         <v>17</v>
       </c>
       <c r="B46" s="29"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
       <c r="E46" s="29"/>
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
-      <c r="K46" s="87"/>
+      <c r="K46" s="66"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
@@ -15670,58 +15680,58 @@
       <c r="P46" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="88"/>
-      <c r="S46" s="86"/>
-      <c r="T46" s="89" t="s">
+      <c r="Q46" s="65"/>
+      <c r="R46" s="67"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="68" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="40">
+      <c r="A47" s="91">
         <v>18</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="G47" s="41" t="s">
+      <c r="G47" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H47" s="40" t="s">
         <v>291</v>
       </c>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41" t="s">
+      <c r="I47" s="40"/>
+      <c r="J47" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="K47" s="49" t="s">
+      <c r="K47" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="L47" s="41" t="s">
+      <c r="L47" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="M47" s="41" t="s">
+      <c r="M47" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
-      <c r="P47" s="48" t="s">
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="Q47" s="44" t="s">
+      <c r="Q47" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="R47" s="45">
+      <c r="R47" s="44">
         <v>45562</v>
       </c>
-      <c r="S47" s="44" t="s">
+      <c r="S47" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T47" s="46"/>
+      <c r="T47" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -15739,6 +15749,24 @@
     <mergeCell ref="D6:I6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
+  <hyperlinks>
+    <hyperlink ref="A30" location="'No.1~2'!A1" display="'No.1~2'!A1" xr:uid="{0AF7266F-46D8-4A0C-A37B-F44540C85515}"/>
+    <hyperlink ref="A31" location="'No.1~2'!A1" display="'No.1~2'!A1" xr:uid="{A78E38BA-1220-4D3E-A411-104DEBCD3CEB}"/>
+    <hyperlink ref="A32" location="'No.3~4'!A1" display="'No.3~4'!A1" xr:uid="{9E25D15B-BE36-4D99-8261-FA646480BB12}"/>
+    <hyperlink ref="A33" location="'No.3~4'!A1" display="'No.3~4'!A1" xr:uid="{F1AD4466-D245-43A6-BC14-B09518979F1B}"/>
+    <hyperlink ref="A34" location="'No.5~6'!A1" display="'No.5~6'!A1" xr:uid="{FC823DF4-4216-4B7E-AE2B-396D99CFC5D7}"/>
+    <hyperlink ref="A35" location="'No.5~6'!A1" display="'No.5~6'!A1" xr:uid="{7A48E6AB-1970-4F92-AD87-0363E0996E7E}"/>
+    <hyperlink ref="A36" location="No.7!A1" display="No.7!A1" xr:uid="{4C11FE12-589A-4028-8AEE-416F9B96527E}"/>
+    <hyperlink ref="A37" location="'No.8~9'!A1" display="'No.8~9'!A1" xr:uid="{A8C9BE4B-9620-4C73-A5B2-E24BD64A88AA}"/>
+    <hyperlink ref="A38" location="'No.8~9'!A1" display="'No.8~9'!A1" xr:uid="{699FC7DB-0D49-4444-B787-B3867C9B42A5}"/>
+    <hyperlink ref="A39" location="'No.10~11'!A1" display="'No.10~11'!A1" xr:uid="{181A23BF-85D9-47DE-BFF2-6A15D3CBDA28}"/>
+    <hyperlink ref="A40" location="'No.10~11'!A1" display="'No.10~11'!A1" xr:uid="{2ED004C5-3FCA-493B-875E-7C4FB474DDED}"/>
+    <hyperlink ref="A41" location="'No.12~13'!A1" display="'No.12~13'!A1" xr:uid="{69029003-3415-48BF-B0EA-4CF5128BA69F}"/>
+    <hyperlink ref="A42" location="'No.12~13'!A1" display="'No.12~13'!A1" xr:uid="{A90805C5-6C20-4C4C-9D57-97250FAE0265}"/>
+    <hyperlink ref="A43" location="No.14!A1" display="No.14!A1" xr:uid="{ABA02330-EFE7-4A17-89CE-58F2BFB570FD}"/>
+    <hyperlink ref="A45" location="No.16!A1" display="No.16!A1" xr:uid="{7F9BCFAB-9059-4EF8-B1BD-D904B2929D5C}"/>
+    <hyperlink ref="A47" location="No.18!A1" display="No.18!A1" xr:uid="{478EB48C-2965-433C-9CBE-66A52FF54692}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15753,415 +15781,415 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="64">
         <v>38113</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AL4" s="76" t="s">
+      <c r="AL4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45532</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AT4" s="76" t="s">
+      <c r="AT4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AU4" s="76" t="s">
+      <c r="AU4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AV4" s="76" t="s">
+      <c r="AV4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AW4" s="76" t="s">
+      <c r="AW4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AX4" s="76" t="s">
+      <c r="AX4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AY4" s="76" t="s">
+      <c r="AY4" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="AZ4" s="76" t="s">
+      <c r="AZ4" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="BA4" s="76" t="s">
+      <c r="BA4" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="BB4" s="76" t="s">
+      <c r="BB4" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="BC4" s="76" t="s">
+      <c r="BC4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="BF4" s="77" t="s">
+      <c r="BF4" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="84"/>
+      <c r="K7" s="63"/>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="55" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="K9" s="84"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="K11" s="84"/>
+      <c r="K11" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -16179,411 +16207,411 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="64">
         <v>38113</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AL4" s="76" t="s">
+      <c r="AL4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45532</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AT4" s="76" t="s">
+      <c r="AT4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AU4" s="76" t="s">
+      <c r="AU4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AV4" s="76" t="s">
+      <c r="AV4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AW4" s="76" t="s">
+      <c r="AW4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AX4" s="76" t="s">
+      <c r="AX4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AY4" s="76" t="s">
+      <c r="AY4" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="AZ4" s="76" t="s">
+      <c r="AZ4" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="BA4" s="76" t="s">
+      <c r="BA4" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="BB4" s="76" t="s">
+      <c r="BB4" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="BC4" s="76" t="s">
+      <c r="BC4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="BF4" s="77" t="s">
+      <c r="BF4" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="K7" s="63"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="K9" s="84"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -16603,10 +16631,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD2" s="73" t="s">
+      <c r="AD2" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -16626,55 +16654,55 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:30" ht="36" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.4">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD6" s="73" t="s">
+      <c r="AD6" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -16694,406 +16722,406 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="64">
         <v>45538</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="76" t="s">
+      <c r="T4" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AL4" s="76" t="s">
+      <c r="AL4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45539</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AT4" s="77" t="s">
+      <c r="AT4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AU4" s="77" t="s">
+      <c r="AU4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AV4" s="77" t="s">
+      <c r="AV4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AW4" s="77" t="s">
+      <c r="AW4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AY4" s="77" t="s">
+      <c r="AY4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AZ4" s="77" t="s">
+      <c r="AZ4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BA4" s="77" t="s">
+      <c r="BA4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BB4" s="77" t="s">
+      <c r="BB4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BC4" s="77" t="s">
+      <c r="BC4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="BF4" s="76" t="s">
+      <c r="BF4" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -17113,406 +17141,406 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="64">
         <v>45538</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="76" t="s">
+      <c r="T4" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AL4" s="76" t="s">
+      <c r="AL4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45539</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AT4" s="77" t="s">
+      <c r="AT4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AU4" s="77" t="s">
+      <c r="AU4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AV4" s="77" t="s">
+      <c r="AV4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AW4" s="77" t="s">
+      <c r="AW4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AY4" s="77" t="s">
+      <c r="AY4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AZ4" s="77" t="s">
+      <c r="AZ4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BA4" s="77" t="s">
+      <c r="BA4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BB4" s="77" t="s">
+      <c r="BB4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BC4" s="77" t="s">
+      <c r="BC4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="BF4" s="76" t="s">
+      <c r="BF4" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -17532,406 +17560,406 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="64">
         <v>45538</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="76" t="s">
+      <c r="T4" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AL4" s="76" t="s">
+      <c r="AL4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45539</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AT4" s="77" t="s">
+      <c r="AT4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AU4" s="77" t="s">
+      <c r="AU4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AV4" s="77" t="s">
+      <c r="AV4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AW4" s="77" t="s">
+      <c r="AW4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AY4" s="77" t="s">
+      <c r="AY4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AZ4" s="77" t="s">
+      <c r="AZ4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BA4" s="77" t="s">
+      <c r="BA4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BB4" s="77" t="s">
+      <c r="BB4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BC4" s="77" t="s">
+      <c r="BC4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="BF4" s="76" t="s">
+      <c r="BF4" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -17951,406 +17979,406 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="64">
         <v>45538</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="76" t="s">
+      <c r="S4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="76" t="s">
+      <c r="T4" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="55" t="s">
         <v>226</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>234</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>236</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AL4" s="76" t="s">
+      <c r="AL4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45539</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>238</v>
       </c>
-      <c r="AT4" s="77" t="s">
+      <c r="AT4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AU4" s="77" t="s">
+      <c r="AU4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AV4" s="77" t="s">
+      <c r="AV4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AW4" s="77" t="s">
+      <c r="AW4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AX4" s="77" t="s">
+      <c r="AX4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AY4" s="77" t="s">
+      <c r="AY4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AZ4" s="77" t="s">
+      <c r="AZ4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BA4" s="77" t="s">
+      <c r="BA4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BB4" s="77" t="s">
+      <c r="BB4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BC4" s="77" t="s">
+      <c r="BC4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>240</v>
       </c>
-      <c r="BF4" s="76" t="s">
+      <c r="BF4" s="55" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -18370,409 +18398,409 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AL4" s="77" t="s">
+      <c r="AL4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="77" t="s">
+      <c r="AN4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45532</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AT4" s="76" t="s">
+      <c r="AT4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AU4" s="76" t="s">
+      <c r="AU4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AV4" s="76" t="s">
+      <c r="AV4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AW4" s="76" t="s">
+      <c r="AW4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AX4" s="76" t="s">
+      <c r="AX4" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="AY4" s="76" t="s">
+      <c r="AY4" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="AZ4" s="76" t="s">
+      <c r="AZ4" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="BA4" s="76" t="s">
+      <c r="BA4" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="BB4" s="76" t="s">
+      <c r="BB4" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="BC4" s="76" t="s">
+      <c r="BC4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="BF4" s="77" t="s">
+      <c r="BF4" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="55" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="77" t="s">
+      <c r="E8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="K9" s="84"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
@@ -18792,414 +18820,414 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="53" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="H3" s="75" t="s">
+      <c r="H3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="I3" s="75" t="s">
+      <c r="I3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="75" t="s">
+      <c r="K3" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="75" t="s">
+      <c r="O3" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="P3" s="75" t="s">
+      <c r="P3" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="75" t="s">
+      <c r="Q3" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="R3" s="75" t="s">
+      <c r="R3" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="75" t="s">
+      <c r="S3" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="75" t="s">
+      <c r="T3" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="75" t="s">
+      <c r="U3" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="75" t="s">
+      <c r="V3" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="75" t="s">
+      <c r="W3" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="75" t="s">
+      <c r="X3" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="75" t="s">
+      <c r="Y3" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="75" t="s">
+      <c r="Z3" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="75" t="s">
+      <c r="AA3" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="75" t="s">
+      <c r="AB3" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="75" t="s">
+      <c r="AC3" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="AD3" s="75" t="s">
+      <c r="AD3" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="AE3" s="75" t="s">
+      <c r="AE3" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="AF3" s="75" t="s">
+      <c r="AF3" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="AG3" s="75" t="s">
+      <c r="AG3" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="AH3" s="75" t="s">
+      <c r="AH3" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="AI3" s="75" t="s">
+      <c r="AI3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="AJ3" s="75" t="s">
+      <c r="AJ3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="AK3" s="75" t="s">
+      <c r="AK3" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="AL3" s="75" t="s">
+      <c r="AL3" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="AM3" s="75" t="s">
+      <c r="AM3" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AN3" s="75" t="s">
+      <c r="AN3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="AO3" s="75" t="s">
+      <c r="AO3" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="AQ3" s="75" t="s">
+      <c r="AQ3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AR3" s="75" t="s">
+      <c r="AR3" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="AS3" s="75" t="s">
+      <c r="AS3" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="AT3" s="75" t="s">
+      <c r="AT3" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="AU3" s="75" t="s">
+      <c r="AU3" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="AV3" s="75" t="s">
+      <c r="AV3" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="AX3" s="75" t="s">
+      <c r="AX3" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="AY3" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="AZ3" s="75" t="s">
+      <c r="AZ3" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="BA3" s="75" t="s">
+      <c r="BA3" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="BB3" s="75" t="s">
+      <c r="BB3" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="BC3" s="75" t="s">
+      <c r="BC3" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="BD3" s="75" t="s">
+      <c r="BD3" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="BE3" s="75" t="s">
+      <c r="BE3" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="BF3" s="75" t="s">
+      <c r="BF3" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="55" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="85">
+      <c r="K4" s="64">
         <v>38113</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="M4" s="76" t="s">
+      <c r="M4" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="W4" s="77" t="s">
+      <c r="W4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="X4" s="77" t="s">
+      <c r="X4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Y4" s="77" t="s">
+      <c r="Y4" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AA4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AB4" s="76" t="s">
+      <c r="AB4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AC4" s="76" t="s">
+      <c r="AC4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AD4" s="76" t="s">
+      <c r="AD4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AE4" s="76" t="s">
+      <c r="AE4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AF4" s="76" t="s">
+      <c r="AF4" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="AG4" s="76" t="s">
+      <c r="AG4" s="55" t="s">
         <v>250</v>
       </c>
-      <c r="AH4" s="76" t="s">
+      <c r="AH4" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="AI4" s="76" t="s">
+      <c r="AI4" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="AJ4" s="76" t="s">
+      <c r="AJ4" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="AK4" s="76" t="s">
+      <c r="AK4" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="AL4" s="76" t="s">
+      <c r="AL4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AM4" s="76" t="s">
+      <c r="AM4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AN4" s="76" t="s">
+      <c r="AN4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AO4" s="85">
+      <c r="AO4" s="64">
         <v>45532</v>
       </c>
-      <c r="AP4" s="76" t="s">
+      <c r="AP4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AQ4" s="76" t="s">
+      <c r="AQ4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="AR4" s="76" t="s">
+      <c r="AR4" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="AS4" s="76" t="s">
+      <c r="AS4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AT4" s="76" t="s">
+      <c r="AT4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AU4" s="76" t="s">
+      <c r="AU4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AV4" s="76" t="s">
+      <c r="AV4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AW4" s="76" t="s">
+      <c r="AW4" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="AX4" s="76" t="s">
+      <c r="AX4" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="AY4" s="76" t="s">
+      <c r="AY4" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="AZ4" s="76" t="s">
+      <c r="AZ4" s="55" t="s">
         <v>274</v>
       </c>
-      <c r="BA4" s="76" t="s">
+      <c r="BA4" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="BB4" s="76" t="s">
+      <c r="BB4" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="BC4" s="76" t="s">
+      <c r="BC4" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="BD4" s="76" t="s">
+      <c r="BD4" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="BE4" s="76" t="s">
+      <c r="BE4" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="BF4" s="77" t="s">
+      <c r="BF4" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="53" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="75" t="s">
+      <c r="G7" s="54" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="77" t="s">
+      <c r="G8" s="56" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="9" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="K9" s="84"/>
+      <c r="K9" s="63"/>
     </row>
     <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="73" t="s">
+      <c r="AD10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="K11" s="84"/>
+      <c r="K11" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>

--- a/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面.xlsx
+++ b/PJ管理/01.成果物/04.T_テスト／移行/テスト仕様書兼報告書_DMS30401_外部システムIF(1図番指定)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FB947-5B9C-4BDB-8D9A-B6C024374942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2842F90D-1830-47F6-83C6-1E67D689A4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1933" uniqueCount="377">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2708,10 +2708,6 @@
     <t xml:space="preserve">3547        </t>
   </si>
   <si>
-    <t>テストミス</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <r>
       <t>user_id_col=</t>
     </r>
@@ -3093,6 +3089,266 @@
   </si>
   <si>
     <t xml:space="preserve">00400296  </t>
+  </si>
+  <si>
+    <t>利用者グループマスターの閲覧フォーマットフラグについて、
+1：TIFF、2：PDF
+それ以外の値はセットできないよう制約をつける</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>USER_GRP_CODE</t>
+  </si>
+  <si>
+    <t>USER_GRP_NAME</t>
+  </si>
+  <si>
+    <t>VIEW_STMP_FLAG</t>
+  </si>
+  <si>
+    <t>EUC_STMP_FLAG</t>
+  </si>
+  <si>
+    <t>PLTR_STMP_FLAG</t>
+  </si>
+  <si>
+    <t>PRINTER_ID01</t>
+  </si>
+  <si>
+    <t>PRINTER_ID02</t>
+  </si>
+  <si>
+    <t>PRINTER_ID03</t>
+  </si>
+  <si>
+    <t>PRINTER_ID04</t>
+  </si>
+  <si>
+    <t>PRINTER_ID05</t>
+  </si>
+  <si>
+    <t>PRINTER_ID06</t>
+  </si>
+  <si>
+    <t>PRINTER_ID07</t>
+  </si>
+  <si>
+    <t>PRINTER_ID08</t>
+  </si>
+  <si>
+    <t>PRINTER_ID09</t>
+  </si>
+  <si>
+    <t>PRINTER_ID10</t>
+  </si>
+  <si>
+    <t>IMPORT_REQ</t>
+  </si>
+  <si>
+    <t>PRINT_REQ</t>
+  </si>
+  <si>
+    <t>CHECKOUT_REQ</t>
+  </si>
+  <si>
+    <t>OTHER_REQ</t>
+  </si>
+  <si>
+    <t>DRWG_NO_DSPFLG</t>
+  </si>
+  <si>
+    <t>CREATE_DATE_DSPFLG</t>
+  </si>
+  <si>
+    <t>CREATE_USER_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_JP_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_EN_DSPFLG</t>
+  </si>
+  <si>
+    <t>USED_FOR_DSPFLG</t>
+  </si>
+  <si>
+    <t>MATERIAL_DSPFLG</t>
+  </si>
+  <si>
+    <t>TREATMENT_DSPFLG</t>
+  </si>
+  <si>
+    <t>PROCUREMENT_DSPFLG</t>
+  </si>
+  <si>
+    <t>SUPPLYER_JP_DSPFLG</t>
+  </si>
+  <si>
+    <t>SUPPLYER_EN_DSPFLG</t>
+  </si>
+  <si>
+    <t>SUPPLYER_TYPE_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH01_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH02_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH03_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH04_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH05_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH06_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH07_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH08_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH09_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH10_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_NO_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_NAME_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_SPEC1_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_SPEC2_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_SPEC3_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_SPEC4_DSPFLG</t>
+  </si>
+  <si>
+    <t>MACHINE_SPEC5_DSPFLG</t>
+  </si>
+  <si>
+    <t>DRWG_TYPE_DSPFLG</t>
+  </si>
+  <si>
+    <t>DRWG_SIZE_DSPFLG</t>
+  </si>
+  <si>
+    <t>ISSUE_DSPFLG</t>
+  </si>
+  <si>
+    <t>SUPPLY_DSPFLG</t>
+  </si>
+  <si>
+    <t>CAD_TYPE_DSPFLG</t>
+  </si>
+  <si>
+    <t>ENGINEER_DSPFLG</t>
+  </si>
+  <si>
+    <t>PROHIBIT_DSPFLG</t>
+  </si>
+  <si>
+    <t>PROHIBIT_DATE_DSPFLG</t>
+  </si>
+  <si>
+    <t>PROHIBIT_EMPNO_DSPFLG</t>
+  </si>
+  <si>
+    <t>PROHIBIT_NAME_DSPFLG</t>
+  </si>
+  <si>
+    <t>PAGES_DSPFLG</t>
+  </si>
+  <si>
+    <t>ACL_DSPFLG</t>
+  </si>
+  <si>
+    <t>ACL_UPDATE_DSPFLG</t>
+  </si>
+  <si>
+    <t>ACL_EMPNO_DSPFLG</t>
+  </si>
+  <si>
+    <t>ACL_NAME_DSPFLG</t>
+  </si>
+  <si>
+    <t>ATTACH_MAX_DSPFLG</t>
+  </si>
+  <si>
+    <t>LATEST_DSPFLG_DSPFLG</t>
+  </si>
+  <si>
+    <t>REPLACE_DSPFLG_DSPFLG</t>
+  </si>
+  <si>
+    <t>CREATE_DIV_DSPFLG</t>
+  </si>
+  <si>
+    <t>MEDIA_ID_DSPFLG</t>
+  </si>
+  <si>
+    <t>TWIN_DRWG_NO_DSPFLG</t>
+  </si>
+  <si>
+    <t>VIEW_PRINT_DOC</t>
+  </si>
+  <si>
+    <t>システム管理者</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>利用者グループマスター「USER_GROUP_MASTER」の閲覧フォーマットフラグ「VIEW_PRINT_DOC」について、
+1：TIFF、2：PDF
+それ以外の値はセットできないよう制約をつける</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新旧ともにエラーログに出力されないためテスト不可</t>
+    <rPh sb="0" eb="2">
+      <t>シンキュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -3681,11 +3937,14 @@
     <xf numFmtId="14" fontId="4" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3747,11 +4006,8 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -8827,15 +9083,103 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3A7506A-108F-3F74-4B26-170872EDF0CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="45633409"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F719C9AB-DABE-F867-DDAF-771778E0A77B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="45633409"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>209201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8852,7 +9196,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8873,14 +9217,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>209201</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8896,7 +9240,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8917,13 +9261,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>209201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8940,7 +9284,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -8961,14 +9305,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>209201</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8984,7 +9328,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9005,13 +9349,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>415637</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9069,16 +9413,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>106220</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>210128</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>83126</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>432955</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>658091</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9093,8 +9437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11189856" y="15582899"/>
-          <a:ext cx="3790372" cy="609600"/>
+          <a:off x="11986492" y="17886217"/>
+          <a:ext cx="2526144" cy="367147"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -9134,7 +9478,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TIFF</a:t>
+            <a:t>PDF</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -9147,33 +9491,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>形式で図面がダウンロードされる</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PDF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>でダウンロードされているので既知の不具合か？？？</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9184,13 +9501,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>521855</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>187037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9258,13 +9575,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>415637</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9324,13 +9641,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>521855</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>187037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>311728</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9394,130 +9711,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>591129</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>31171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>155862</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE250DA7-E4A4-5AA6-09FD-CC7FEC79F132}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31763856" y="15704126"/>
-          <a:ext cx="3790372" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 41579"/>
-            <a:gd name="adj2" fmla="val -109456"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TIFF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>形式で図面がダウンロードされる</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PDF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>でダウンロードされているので既知の不具合か？？？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>338433</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>219289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9534,7 +9738,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9555,13 +9759,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>338432</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>219289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9578,7 +9782,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -9599,13 +9803,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>225137</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9817,13 +10021,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>242454</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>155863</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10031,6 +10235,632 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF34B54E-E602-4F99-BB6E-063C0C15FA7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="32159864"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0AC7E8F-A994-4851-A3BE-2FAE2A2C43E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="32159864"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>135660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AE678BC-92C8-43B7-BED6-854465D6030E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2996046" y="33750251"/>
+          <a:ext cx="883227" cy="418523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175491</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>100446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>623454</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437D575E-6387-47A7-B7B7-E06980C7D2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11951855" y="47188582"/>
+          <a:ext cx="2526144" cy="297873"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41579"/>
+            <a:gd name="adj2" fmla="val -109456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TIFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>形式で図面がダウンロードされる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>521855</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>187038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>34639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7407399-8A13-4010-80D6-23636E4FA544}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3985491" y="33559174"/>
+          <a:ext cx="482600" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72600"/>
+            <a:gd name="adj2" fmla="val 93442"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>135660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B155C429-413B-43BC-B4A5-02B3C780B4F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22392410" y="33750251"/>
+          <a:ext cx="883227" cy="418523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>521855</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>187038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>34639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Speech Bubble: Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062565F8-F527-4025-8B79-B2099EF167DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23381855" y="33559174"/>
+          <a:ext cx="482600" cy="332510"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72600"/>
+            <a:gd name="adj2" fmla="val 93442"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>155864</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>603826</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>228602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Speech Bubble: Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D624BE89-2808-4DF5-82A2-239A78A24587}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31328591" y="17179637"/>
+          <a:ext cx="2526144" cy="367147"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41579"/>
+            <a:gd name="adj2" fmla="val -109456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PDF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>形式で図面がダウンロードされる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>158174</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>169719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>606136</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Speech Bubble: Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB10242D-9482-C996-EDC4-C541DDF94CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31330901" y="47742764"/>
+          <a:ext cx="2526144" cy="297873"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41579"/>
+            <a:gd name="adj2" fmla="val -109456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TIFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>形式で図面がダウンロードされる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10040,13 +10870,189 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA7E258-ACBE-986C-23C4-F231B5CF8052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="45633409"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA21B6E-76C8-0F5E-24BA-5AE0DD7C0052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="45633409"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFE8994-EBD9-4516-B8E3-48ED38F4A284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="692727" y="35450318"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>279644</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>209201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD85CBA-2A89-4FAA-99B6-F68FE6B7BD42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20089091" y="35450318"/>
+          <a:ext cx="18290553" cy="9907383"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>338433</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>219289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10063,7 +11069,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10084,13 +11090,13 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>209201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10107,7 +11113,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10128,13 +11134,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>338432</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>219289</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10151,7 +11157,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10172,13 +11178,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>209201</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10195,7 +11201,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10216,14 +11222,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>209201</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10239,7 +11245,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10260,14 +11266,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
       <xdr:colOff>279644</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>209201</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>209202</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10283,7 +11289,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -10304,13 +11310,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>415637</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10368,128 +11374,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348675</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>221672</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>675410</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>103908</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBBFDA1-BF04-4F32-9121-0047D411D56C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11432311" y="15652172"/>
-          <a:ext cx="3790372" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 41579"/>
-            <a:gd name="adj2" fmla="val -109456"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TIFF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>形式で図面がダウンロードされる</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PDF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>でダウンロードされているので既知の不具合か？？？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>521855</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>187037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>311727</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10557,13 +11450,13 @@
     <xdr:from>
       <xdr:col>32</xdr:col>
       <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>135659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>415637</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10623,13 +11516,13 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>521855</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>187037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>311728</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10695,128 +11588,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>2310</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>329046</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>34635</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0BB199-DB00-459D-A7D2-2992F41A462D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="29789583" y="15340444"/>
-          <a:ext cx="3790372" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 52545"/>
-            <a:gd name="adj2" fmla="val -112297"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TIFF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>形式で図面がダウンロードされる</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>PDF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>でダウンロードされているので既知の不具合か？？？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>86592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>207818</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11028,13 +11808,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>623454</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>155865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>536863</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11237,6 +12017,630 @@
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>187035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>621144</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBBF2535-33D3-4774-A7EC-226729FC95F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11949545" y="15375080"/>
+          <a:ext cx="2526144" cy="367147"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41579"/>
+            <a:gd name="adj2" fmla="val -109456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PDF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>形式で図面がダウンロードされる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>136235</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>584197</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>20783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Speech Bubble: Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D56D3A8-0441-49FC-8B22-B2038265D6C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31308962" y="15811500"/>
+          <a:ext cx="2526144" cy="367147"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41579"/>
+            <a:gd name="adj2" fmla="val -109456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PDF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>形式で図面がダウンロードされる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>135660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC8CB57-A9CD-40B3-B4AD-29207B614F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2968337" y="36435435"/>
+          <a:ext cx="876300" cy="409864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>175492</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>100446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>623455</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A558F3-653B-4ECF-BA2A-54ABD52C35DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11951856" y="47188582"/>
+          <a:ext cx="2526144" cy="297873"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41579"/>
+            <a:gd name="adj2" fmla="val -109456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TIFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>形式で図面がダウンロードされる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>521855</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>187038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>34639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Speech Bubble: Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC77A50-1351-42E3-8126-5C9A7E8CBE88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3950855" y="36248688"/>
+          <a:ext cx="475672" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72600"/>
+            <a:gd name="adj2" fmla="val 93442"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>135660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{091D0859-6705-4C02-8F41-329AA60BFDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22170737" y="36435435"/>
+          <a:ext cx="876300" cy="409864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>521855</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>187038</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>311728</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>34639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Speech Bubble: Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCF9A647-FCFB-470C-8E10-D53052C06043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23153255" y="36248688"/>
+          <a:ext cx="475673" cy="323851"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -72600"/>
+            <a:gd name="adj2" fmla="val 93442"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>押下</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>175492</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>623454</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Speech Bubble: Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A066D483-D791-439D-A612-872A7A2D92BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31348219" y="47725446"/>
+          <a:ext cx="2526144" cy="297873"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41579"/>
+            <a:gd name="adj2" fmla="val -109456"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TIFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>形式で図面がダウンロードされる</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14257,20 +15661,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="80"/>
       <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
@@ -14283,10 +15687,10 @@
       <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
@@ -14299,40 +15703,40 @@
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:10" ht="217.7" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="29"/>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="70" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="71" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14364,7 +15768,7 @@
       <c r="I7" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="71"/>
+      <c r="J7" s="72"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
@@ -14592,20 +15996,20 @@
       <c r="A15" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="69" t="s">
-        <v>287</v>
+      <c r="B15" s="68" t="s">
+        <v>286</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>263</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>288</v>
-      </c>
       <c r="F15" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>33</v>
@@ -14662,20 +16066,20 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="29"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="70" t="s">
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
       <c r="J18" s="34" t="s">
         <v>50</v>
       </c>
@@ -14691,7 +16095,7 @@
       <c r="D19" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="22" t="s">
         <v>52</v>
       </c>
@@ -14846,7 +16250,7 @@
       </c>
       <c r="R23" s="50">
         <f>COUNTIF(Q$30:Q$998,Q23)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
@@ -14889,7 +16293,7 @@
     <row r="25" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="28"/>
       <c r="B25" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>46</v>
@@ -14920,7 +16324,7 @@
       </c>
       <c r="R25" s="51" t="str">
         <f>"未実施："&amp;COUNTA(P$30:P$998)-SUM(R21:R24)&amp;"／実施済："&amp;SUM(R21:R24)</f>
-        <v>未実施：2／実施済：16</v>
+        <v>未実施：0／実施済：18</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
@@ -14987,14 +16391,14 @@
       <c r="C29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="73"/>
-      <c r="I29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -15018,7 +16422,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="157.5" x14ac:dyDescent="0.4">
-      <c r="A30" s="90">
+      <c r="A30" s="69">
         <v>1</v>
       </c>
       <c r="B30" s="58" t="s">
@@ -15076,7 +16480,7 @@
       <c r="T30" s="59"/>
     </row>
     <row r="31" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A31" s="91">
+      <c r="A31" s="70">
         <v>2</v>
       </c>
       <c r="B31" s="40"/>
@@ -15110,7 +16514,7 @@
       <c r="T31" s="45"/>
     </row>
     <row r="32" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A32" s="90">
+      <c r="A32" s="69">
         <v>3</v>
       </c>
       <c r="B32" s="60"/>
@@ -15154,7 +16558,7 @@
       <c r="T32" s="59"/>
     </row>
     <row r="33" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A33" s="91">
+      <c r="A33" s="70">
         <v>4</v>
       </c>
       <c r="B33" s="40"/>
@@ -15188,7 +16592,7 @@
       <c r="T33" s="45"/>
     </row>
     <row r="34" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A34" s="91">
+      <c r="A34" s="70">
         <v>5</v>
       </c>
       <c r="B34" s="40"/>
@@ -15234,7 +16638,7 @@
       <c r="T34" s="45"/>
     </row>
     <row r="35" spans="1:20" ht="31.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="91">
+      <c r="A35" s="70">
         <v>6</v>
       </c>
       <c r="B35" s="40"/>
@@ -15268,7 +16672,7 @@
       <c r="T35" s="45"/>
     </row>
     <row r="36" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A36" s="91">
+      <c r="A36" s="70">
         <v>7</v>
       </c>
       <c r="B36" s="40"/>
@@ -15306,7 +16710,7 @@
       <c r="T36" s="45"/>
     </row>
     <row r="37" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A37" s="91">
+      <c r="A37" s="70">
         <v>8</v>
       </c>
       <c r="B37" s="40"/>
@@ -15341,10 +16745,12 @@
       <c r="S37" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T37" s="45"/>
+      <c r="T37" s="42" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="38" spans="1:20" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A38" s="91">
+      <c r="A38" s="70">
         <v>9</v>
       </c>
       <c r="B38" s="40"/>
@@ -15378,7 +16784,7 @@
       <c r="T38" s="45"/>
     </row>
     <row r="39" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A39" s="91">
+      <c r="A39" s="70">
         <v>10</v>
       </c>
       <c r="B39" s="40"/>
@@ -15413,10 +16819,12 @@
       <c r="S39" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T39" s="45"/>
+      <c r="T39" s="42" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="40" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A40" s="91">
+      <c r="A40" s="70">
         <v>11</v>
       </c>
       <c r="B40" s="40"/>
@@ -15450,7 +16858,7 @@
       <c r="T40" s="45"/>
     </row>
     <row r="41" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A41" s="91">
+      <c r="A41" s="70">
         <v>12</v>
       </c>
       <c r="B41" s="40"/>
@@ -15498,7 +16906,7 @@
       <c r="T41" s="45"/>
     </row>
     <row r="42" spans="1:20" ht="47.25" x14ac:dyDescent="0.4">
-      <c r="A42" s="91">
+      <c r="A42" s="70">
         <v>13</v>
       </c>
       <c r="B42" s="40"/>
@@ -15532,7 +16940,7 @@
       <c r="T42" s="45"/>
     </row>
     <row r="43" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A43" s="91">
+      <c r="A43" s="70">
         <v>14</v>
       </c>
       <c r="B43" s="40"/>
@@ -15602,15 +17010,17 @@
       <c r="P44" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="Q44" s="65"/>
+      <c r="Q44" s="65" t="s">
+        <v>148</v>
+      </c>
       <c r="R44" s="67"/>
       <c r="S44" s="65"/>
-      <c r="T44" s="68" t="s">
-        <v>285</v>
+      <c r="T44" s="45" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="45" spans="1:20" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="91">
+      <c r="A45" s="70">
         <v>16</v>
       </c>
       <c r="B45" s="40"/>
@@ -15631,7 +17041,7 @@
         <v>143</v>
       </c>
       <c r="K45" s="41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L45" s="40" t="s">
         <v>128</v>
@@ -15680,15 +17090,17 @@
       <c r="P46" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="Q46" s="65"/>
+      <c r="Q46" s="65" t="s">
+        <v>148</v>
+      </c>
       <c r="R46" s="67"/>
       <c r="S46" s="65"/>
-      <c r="T46" s="68" t="s">
-        <v>285</v>
+      <c r="T46" s="45" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:20" ht="141.75" x14ac:dyDescent="0.4">
-      <c r="A47" s="91">
+      <c r="A47" s="70">
         <v>18</v>
       </c>
       <c r="B47" s="41"/>
@@ -15696,13 +17108,13 @@
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G47" s="40" t="s">
         <v>289</v>
       </c>
-      <c r="G47" s="40" t="s">
+      <c r="H47" s="40" t="s">
         <v>290</v>
-      </c>
-      <c r="H47" s="40" t="s">
-        <v>291</v>
       </c>
       <c r="I47" s="40"/>
       <c r="J47" s="40" t="s">
@@ -16208,7 +17620,7 @@
   <sheetData>
     <row r="2" spans="2:58" x14ac:dyDescent="0.4">
       <c r="B2" s="53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
@@ -16386,7 +17798,7 @@
     </row>
     <row r="4" spans="2:58" x14ac:dyDescent="0.4">
       <c r="B4" s="55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>218</v>
@@ -16559,7 +17971,7 @@
     </row>
     <row r="6" spans="2:58" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
@@ -16586,13 +17998,13 @@
     </row>
     <row r="8" spans="2:58" x14ac:dyDescent="0.4">
       <c r="B8" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="55" t="s">
-        <v>296</v>
-      </c>
       <c r="D8" s="55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E8" s="56" t="s">
         <v>158</v>
@@ -17553,18 +18965,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7B4BE7-5AC1-4E18-8EF2-DA952B71AB69}">
-  <dimension ref="B2:BF10"/>
+  <dimension ref="B2:BS194"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B2" s="53" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:71" ht="72" x14ac:dyDescent="0.4">
       <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
@@ -17737,7 +19149,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B4" s="55" t="s">
         <v>217</v>
       </c>
@@ -17910,12 +19322,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:71" ht="36" x14ac:dyDescent="0.4">
       <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
@@ -17935,7 +19347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B8" s="55" t="s">
         <v>241</v>
       </c>
@@ -17955,14 +19367,922 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B10" s="53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:71" ht="72" x14ac:dyDescent="0.4">
+      <c r="B11" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="N11" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="S11" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="T11" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="V11" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="W11" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="X11" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y11" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z11" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA11" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB11" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC11" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD11" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE11" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF11" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG11" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI11" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ11" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK11" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL11" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM11" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN11" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO11" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP11" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ11" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR11" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS11" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT11" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU11" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV11" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW11" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX11" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY11" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="AZ11" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA11" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="BB11" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="BC11" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="BD11" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE11" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="BF11" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG11" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="BH11" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI11" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="BJ11" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK11" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="BL11" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="BM11" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN11" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="BO11" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="BP11" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BQ11" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR11" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS11" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B12" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="X12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS12" s="91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B14" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="52" t="s">
+      <c r="AD14" s="52" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="134" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B134" s="53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="2:71" ht="72" x14ac:dyDescent="0.4">
+      <c r="B135" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F135" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G135" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H135" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="I135" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="J135" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="K135" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="L135" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="M135" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="N135" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="O135" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="P135" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q135" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="R135" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="S135" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="T135" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="U135" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="V135" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="W135" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="X135" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y135" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z135" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA135" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB135" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC135" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD135" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE135" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF135" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG135" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH135" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI135" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ135" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK135" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL135" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM135" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN135" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO135" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP135" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ135" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR135" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS135" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT135" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU135" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV135" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW135" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX135" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY135" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="AZ135" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA135" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="BB135" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="BC135" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="BD135" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE135" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="BF135" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG135" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="BH135" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI135" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="BJ135" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK135" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="BL135" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="BM135" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN135" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="BO135" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="BP135" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BQ135" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR135" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS135" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B136" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H136" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I136" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J136" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="K136" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="L136" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M136" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="N136" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="O136" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="P136" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="R136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="S136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="T136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="V136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="W136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="X136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS136" s="91" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17972,18 +20292,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BF2528-49F3-4CCE-93E3-A937A9FC8B77}">
-  <dimension ref="B2:BF10"/>
+  <dimension ref="B2:BS194"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B2" s="53" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="2:58" ht="72" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:71" ht="72" x14ac:dyDescent="0.4">
       <c r="B3" s="54" t="s">
         <v>25</v>
       </c>
@@ -18156,7 +20476,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B4" s="55" t="s">
         <v>217</v>
       </c>
@@ -18329,12 +20649,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B6" s="53" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="2:58" ht="36" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:71" ht="36" x14ac:dyDescent="0.4">
       <c r="B7" s="54" t="s">
         <v>25</v>
       </c>
@@ -18354,7 +20674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:58" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:71" x14ac:dyDescent="0.4">
       <c r="B8" s="55" t="s">
         <v>241</v>
       </c>
@@ -18374,14 +20694,922 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="2:58" x14ac:dyDescent="0.4">
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B10" s="53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:71" ht="72" x14ac:dyDescent="0.4">
+      <c r="B11" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="J11" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="K11" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="N11" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="P11" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q11" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="R11" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="S11" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="T11" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="U11" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="V11" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="W11" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="X11" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y11" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z11" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA11" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB11" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC11" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD11" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE11" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF11" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG11" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH11" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI11" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ11" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK11" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL11" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM11" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN11" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO11" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP11" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ11" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR11" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS11" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT11" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU11" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV11" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW11" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX11" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY11" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="AZ11" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA11" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="BB11" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="BC11" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="BD11" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE11" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="BF11" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG11" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="BH11" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI11" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="BJ11" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK11" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="BL11" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="BM11" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN11" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="BO11" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="BP11" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BQ11" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR11" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS11" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B12" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H12" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="L12" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M12" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="N12" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="O12" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="P12" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="X12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS12" s="91" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B14" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AD10" s="52" t="s">
+      <c r="AD14" s="52" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="134" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B134" s="53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="2:71" ht="72" x14ac:dyDescent="0.4">
+      <c r="B135" s="54" t="s">
+        <v>297</v>
+      </c>
+      <c r="C135" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="D135" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E135" s="54" t="s">
+        <v>300</v>
+      </c>
+      <c r="F135" s="54" t="s">
+        <v>301</v>
+      </c>
+      <c r="G135" s="54" t="s">
+        <v>302</v>
+      </c>
+      <c r="H135" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="I135" s="54" t="s">
+        <v>304</v>
+      </c>
+      <c r="J135" s="54" t="s">
+        <v>305</v>
+      </c>
+      <c r="K135" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="L135" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="M135" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="N135" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="O135" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="P135" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q135" s="54" t="s">
+        <v>312</v>
+      </c>
+      <c r="R135" s="54" t="s">
+        <v>313</v>
+      </c>
+      <c r="S135" s="54" t="s">
+        <v>314</v>
+      </c>
+      <c r="T135" s="54" t="s">
+        <v>315</v>
+      </c>
+      <c r="U135" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="V135" s="54" t="s">
+        <v>317</v>
+      </c>
+      <c r="W135" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="X135" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y135" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z135" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA135" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB135" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC135" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="AD135" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE135" s="54" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF135" s="54" t="s">
+        <v>327</v>
+      </c>
+      <c r="AG135" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH135" s="54" t="s">
+        <v>329</v>
+      </c>
+      <c r="AI135" s="54" t="s">
+        <v>330</v>
+      </c>
+      <c r="AJ135" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK135" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL135" s="54" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM135" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="AN135" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO135" s="54" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP135" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="AQ135" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="AR135" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="AS135" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="AT135" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="AU135" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="AV135" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="AW135" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="AX135" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="AY135" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="AZ135" s="54" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA135" s="54" t="s">
+        <v>348</v>
+      </c>
+      <c r="BB135" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="BC135" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="BD135" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="BE135" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="BF135" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG135" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="BH135" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="BI135" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="BJ135" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK135" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="BL135" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="BM135" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="BN135" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="BO135" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="BP135" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="BQ135" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="BR135" s="54" t="s">
+        <v>365</v>
+      </c>
+      <c r="BS135" s="54" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="2:71" x14ac:dyDescent="0.4">
+      <c r="B136" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C136" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="D136" s="55" t="s">
+        <v>239</v>
+      </c>
+      <c r="E136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="F136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H136" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="I136" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J136" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="K136" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="L136" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="M136" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="N136" s="55" t="s">
+        <v>371</v>
+      </c>
+      <c r="O136" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="P136" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="R136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="S136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="T136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="U136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="V136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="W136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="X136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AV136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AX136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BA136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BC136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BG136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BH136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BI136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BJ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BP136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BR136" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS136" s="91" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="146" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="147" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="148" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="149" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="150" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="151" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="152" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="153" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="154" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="155" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="156" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="157" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="158" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="159" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="160" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="161" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="162" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="163" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="164" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="165" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="166" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="167" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="168" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="169" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="170" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="171" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="172" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="173" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="174" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="175" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="176" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="177" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="178" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="179" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="180" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="181" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="182" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="183" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="184" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="185" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="186" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="187" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="188" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="189" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="190" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="191" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="192" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="193" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="194" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19237,17 +22465,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -19470,6 +22687,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19480,17 +22708,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C777D6-A248-4EA5-8B66-997B2450337F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAC3F4FA-C13C-4122-ADAB-BE8D169DC87F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19509,6 +22726,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C777D6-A248-4EA5-8B66-997B2450337F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAB51331-CF8F-401F-9CBD-1E931334C107}">
   <ds:schemaRefs>
